--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>团子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
@@ -541,6 +549,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B89A9F6-F6DC-400A-8F90-83324C5C04E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="109" windowWidth="14808" windowHeight="8015"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role" sheetId="1" r:id="rId1"/>
@@ -76,18 +77,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大妈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
+    <t>一颗无辜的树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -286,6 +304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -461,14 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -478,12 +513,12 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -497,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
@@ -509,7 +544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>-1</v>
       </c>
@@ -535,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -549,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1002</v>
       </c>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B89A9F6-F6DC-400A-8F90-83324C5C04E4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE308207-AFAB-4C90-A037-C3043008EB52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,11 +77,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一颗无辜的树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
+    <t>一只猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3">
         <v>-1</v>
       </c>
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="3">
         <v>1001</v>
       </c>
@@ -585,18 +585,396 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>1002</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE308207-AFAB-4C90-A037-C3043008EB52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05F9A6-E3D2-478D-B45A-7B1D765E27CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,10 @@
   </si>
   <si>
     <t>猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钓鱼老头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +504,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I10" activeCellId="1" sqref="F9 I10:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -599,10 +603,18 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC05F9A6-E3D2-478D-B45A-7B1D765E27CC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169FCA9-34F9-4C89-BEE7-E82435655EB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>钓鱼老头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八戒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +512,7 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" activeCellId="1" sqref="F9 I10:I11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -617,10 +625,18 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="C10" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0169FCA9-34F9-4C89-BEE7-E82435655EB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8FAA8A-636C-43EF-AE6C-9596B4C76043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,121 @@
   </si>
   <si>
     <t>八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下棋者1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老张头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老李头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老孙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔壁老王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
+    <t>下棋者2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观棋者1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观棋者2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大妈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大妈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大妈3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱戏大叔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王他哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一条狗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶馆门口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一群人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种菜哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干活哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洗衣服阿姨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老王媳妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孩1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小孩2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪吃鬼1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪吃鬼2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -639,94 +754,214 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="C12" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="C17" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="3">
+        <v>1014</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C26" s="3"/>
@@ -1003,6 +1238,12 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/RoleConfig.xlsx
+++ b/Excel/RoleConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F8FAA8A-636C-43EF-AE6C-9596B4C76043}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3EF35-CD19-426E-97DC-98968DD90782}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>贪吃鬼2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞猪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +968,18 @@
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
